--- a/Data/Locker Visit .xlsx
+++ b/Data/Locker Visit .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Data\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -37,12 +37,16 @@
   </si>
   <si>
     <t>OR.0008.0031.20230103.16</t>
+  </si>
+  <si>
+    <t>OR.0008.0031.20230713.16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,13 +358,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.28515625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -398,6 +402,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Locker Visit .xlsx
+++ b/Data/Locker Visit .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>OR.0008.0031.20230713.16</t>
+  </si>
+  <si>
+    <t>OR.0008.0031.20230907.16</t>
+  </si>
+  <si>
+    <t>OR.0008.0031.20230907.17</t>
   </si>
 </sst>
 </file>
@@ -358,13 +364,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.28515625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -407,6 +413,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Locker Visit .xlsx
+++ b/Data/Locker Visit .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Transaction Number</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>OR.0008.0031.20230907.17</t>
+  </si>
+  <si>
+    <t>OR.0008.0031.20230907.11</t>
   </si>
 </sst>
 </file>
@@ -364,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,6 +426,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
